--- a/medicine/Premiers secours et secourisme/Air_Zermatt/Air_Zermatt.xlsx
+++ b/medicine/Premiers secours et secourisme/Air_Zermatt/Air_Zermatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Air Zermatt AG est une compagnie aérienne suisse fondée en 1968 par Beat H. Perren dont le siège est à Zermatt. Au même titre que Air Glaciers, Air Zermatt assure le sauvetage aérien dans une partie du Valais surtout aux alentours du Matterhorn (Cervin), des vols touristiques dont le carburant annuel représente un vol Zürich-New York en long-courrier, de l'héliski et des vols de transports. Les vols de transports représentent 60 % du temps de vol annuel. L'entreprise a son compte 35 000 sauvetages. Ce nombre est passé de 90 en 1968 à plus de 1 600 en 2012[1]. Air Zermatt a aussi reçu 3 Heroism Awards (1972, 1976, 2010).
+Air Zermatt AG est une compagnie aérienne suisse fondée en 1968 par Beat H. Perren dont le siège est à Zermatt. Au même titre que Air Glaciers, Air Zermatt assure le sauvetage aérien dans une partie du Valais surtout aux alentours du Matterhorn (Cervin), des vols touristiques dont le carburant annuel représente un vol Zürich-New York en long-courrier, de l'héliski et des vols de transports. Les vols de transports représentent 60 % du temps de vol annuel. L'entreprise a son compte 35 000 sauvetages. Ce nombre est passé de 90 en 1968 à plus de 1 600 en 2012. Air Zermatt a aussi reçu 3 Heroism Awards (1972, 1976, 2010).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Air Zermatt a été fondé dans le but de pouvoir secourir des alpinistes en danger en haute montagne.
 En 1968, le directeur de la compagnie obtient son premier hélicoptère, financé uniquement par lui-même. C'était un Agusta Bell 206 A. 
@@ -549,7 +563,9 @@
           <t>Flotte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La flotte est composée de 9 hélicoptères (Novembre 2018 ):
 1 Aérospatiale SA-315 B Lama
@@ -583,7 +599,9 @@
           <t>Héliski</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Air Zermatt organise des vols héliski en Suisse, en Turquie (en coopération avec Turkey Heliski) et dans l'Himalaya.
 </t>
@@ -614,7 +632,9 @@
           <t>Coopération</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pilotes et certains autres employés donnent leurs savoirs à des pilotes du Népal, de la Croatie, Russie, Turquie et du Chili.
 </t>
@@ -645,7 +665,9 @@
           <t>Fishtail Air</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Fishtail Air est la société de secours en montagne dans l'Himalaya. Elle a été aidée beaucoup par Air Zermatt. Des pilotes d'Air Zermatt ainsi que le chef des secours de Zermatt ont été dans l'Himalaya pour former des pilotes. Des pilotes et des assistants de vols népalais ont aussi été formés à Zermatt. Mais le programme a été remis en question lors de la mort de deux pilotes. Ils effectuaient un sauvetage à l'Ama Dablam (6 812 mètres, la limite pour un hélicoptère étant à 7 000 mètres) car deux alpinistes très expérimentés étaient coincés à cause du mauvais temps et l'hélicoptère a heurté une paroi. Ceci laissant le deuxième alpiniste encore coincé. Il a quand même été sauvé.
 Air Zermatt a continué le programme.
@@ -678,6 +700,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
